--- a/Testdata/TC_75.xlsx
+++ b/Testdata/TC_75.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>+xkAAB+LCAAAAAAAAAOlWVtv48YV/iuEn5oHiaR8N2YZWJLtCpUsw6Lr3bwUI3JssSY5Cjm0rbd9KdJsmqcmQXPPPqUoumkeWqDItul/CSrv9ql/oWcuHF4kb6LtwrA537nMzJkz5zKL3ryNQuOaJGlA4wdrdtNaM0jsUT+ILx+sZeyiYW+tvemgg1uPhCc4wRFhwGyAVJzu3abBg7UJY9M907y5uWnerDdpcmm2LMs2Hw76I29CItwI4pTh2CNrWsr/cak1B3X8aEAY9jHDUvLBWm/Ua3ZI4HUBG+AYX5Kk2c7SICZpehCzgAUk5ZIJwYx0uoNfyo05reZW00bmAl5wtrMg9CVfhVPiig+mJW4QEadl2TsNa6exbrt2a8/e2ttoNXe3N9/KBTUj6uOUjUhyHXgCGDEcTYW4tbNu2y17a6OFzKVMoKswgIOGoX9KroOU+B0ShulKFjHVAe57DHa9mjEtZJZklaLXX8JRgqcTN2AhWW0Z7a5rRLFaS6HEQYc0IR7Y77WWdExuhokyqzvtA9WdBAmbdfFsZV1nKUmGU26k1UQd1KUx2w9Jws6mcNbEB1cAgsOSjCDzHmIh1A1SD76DOCO+c4HDtCxUIaJzmlylU+yRY7jHJtdxE4cU++BwLEhZ4KWFggUKOknoFFTC7G0a+oegNudeQtG6ezEYmU/cpvSqrr5KROJcxQnDqUZY61/A0WhCb4ZxOBtl49RLgjHxu+2ceykN8SuppDtZymgEqyggJLESMhiYM/gHt7BOQV3iBREOT0KwZOqsg6IKgPYzRi8C1qFhFsXapDUUncOmXHKrN6nHaAgnHHPD07gX17QspVUlTulN7jyLuLBDCd5PPX0oi5Q6dxcw5ZaLBHEofJeHQQhJonwcJbTqGKMJIWypV0gK4vHwkKcdpz3jcyKzQBB4J7g4oI69u7vdsGz4cS1rT/zAzJqMDmJffECS2WrYLR64C76ciI6zaDiGa3wt9uTYQKtBCHYRtkMcXwF6HrDJ8X6++iUUJPd8L/8iDcGFnYZ4JmBtlzKGerEXZj6RcaAXXwin5GtT3PfS0QLUh6vtIBzP3NmUxwPzHo4uucBZCCmKQSS5LIJEDUb76VWdpwyhsyTMz9jhBUAKFYDnR00PYiTPck2PRhwwIfGej5BZ5ueB3iMH8WUfx5cZhFJtxzquPYwHATfBccq3oyNnzdmWM6H8XGREd+RhDTPhTvKwKFCRWeNDLommNMHhAAwTHGaxyJoqLYCFB5hN1Agub0i83MhmIaqlqivLF/5jbOIaym3wMF++hiVUcPHNyGKjxFSAiO9zQH3I9zgMxknFzZbS4MiKLJg7HN/eihkxPwWoOCHC/ILMeBlSDBTOvdaxc4IYoQ4syRmdbuy0Nq2tHYjefIzElo8o1LlxBKxGl4zZntGlEeG5bc9ot/eMCnlK04DB8UpbqQv42lrK8ugwIW9nUGPPxNIG4MAVoEqHEHsZxDhc4NOEgt8ZQOKdhLMSp9x5n3rAePfBv+bffTZ//N38ydP//uOT+af/nP/ma/hot+GXIj77w92fv5e7lkLIxeOQiIW57Z0da30DHFBDSMUNyP9+5jGBPXok6gE9RqqwFYPOQa9z1G+LQKPBXJzXGhm/JH08o1kxHMnNiInESZu5g0gWx80DlxpXqF3CiwB5O3kNe02q3GX6fYLSFi+ef/3i+bN7pZXBiqQDuabVsDZ+Qk6y13lOspbmJN4byNIv7zw2eedhr5eYazzoFBooqPS0nXq+s25bu9b2tmXrIO9rv17GVCcpTS6+NGtyEurQLGbJTLtAeZwThf+7cFk0Wd6I0kC56t/ee/mXDytcyroKqWqBxdEskd5k5gOh+vjUNUbDs9POgeEejLifFLQSn1T+CmY1u75XZadZvHUVl1qGSnWvFKzPeJTQbLoQMQp0CefS2LFIrUkK2ywuraAt4Ven9tlvlwmonSifOYsDppu5MoYqFAmV6OoKfvz9v//+zvzZl/MnX9299+786Qfz959W9KjZdKcDrgsXpDzUngxRTGWWGoLOR8KmV9avSplEgbxIPKFBzFLHtjdFgaiGCGRtrk78Rb0IspvQLMwGeA1BP8fpwS1Tl9U5RmYVgIVOMSRWWpTSGpBxuTDvfz7/4u7Tv9599O3Ld/40f/LH+e8+evH8y5ffPJU36e7Db+/e/0ZF7npwF2vhBbqs+AzR8nkGv2EGT9PGD49/b8SUGVBfGJmIMj88/rikjC9UVCKFZqjf9EKqS1hgLQtzOaO0FL2GipwWkbm+w9PSuuZQiYlOA6+Y5K0GVwVFqCEIP+u5jSwlBoXS6Q3YSZW5EP6pckpEpsmTbatltxRVroZvYYzTkumPQjrGoZETRD9VY6lIvVqg4BXzHfWH7f1+wSIXMUx8aL8s3hTyD5TXjzxN9NJ8pLuIAgEq1HheFvIWeIFtkaQ1l8KZqVrJi32fPy06liWatWrOq3BAR54kstqJ1fvkKJtC5ctUB3o/XTzFlGrdY1mWlqvfYtzrVukwLlEhuVXJHBB0EaEUSUarXsrbVlm5HnPTFEOgVZ5vwBzqCVJWT9cBHInJA89BktBkafQpKDnbAIpmiChmYXHNI85UFth+cVY5kEc8/SHbPLVD2iUhYau9z5mF9AAq4NeVhbNfVbSXDkNfGXO1LkObpVBQfqTkjvL/vlFKZ9tPEiiW+HvGyo+KeZd6Cs3tiquRWxGCvNuD2dWr32GQpOwhjwTqSyKPNPJIVp0PnY1tWVs+lIDgkB9qk0q7WVlmfnWZfCqmYT+IghU7QCu/31UlYMvpVJZlvdU8haeWY3ILRWNJAwTF8a8hbfA2ZjVt0mEhlmp5/jCTBpcTturCtseY+GRsNbwxaTU2fCjudwmBjsCG39hrQRuxyV91lHKIHAG5WXESMz+w4r9wnP8BYB//pPsZAAA=</t>
+          <t>0hsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD3RcnzkU1vYovCRZ2HMUOmdkXVO4ux0Xa3aa7OonfRlotC7PsE7srFhaW4QWEmGUfQEI7aPkvK5wZnvgLnLr01c4MHUbWTNd3LlV16tyqBr1zO/e0axJGNPAfbZl1Y0sjvhO41L98tBWzac1sbr1jo+6tQ7xTHOI5YcCsgZQfHdxG9NHWjLHFga7f3NzUbxr1ILzULcMw9ceD/siZkTmuUT9i2HfIVirlvl1qy0Ztdz4gDLuYYSn5aKs36tXbhDodwAbYx5ckrLfiiPokiro+o4ySiEuGBDPS7gx+IDdmW/Vm3UT6Gp5xtmLquZKvwClxxQfTkjGdE9syLKNm7NWs7bGxe9BoHpjNenNn791EMGVEfRyxEQmvqSOAEcPzhRA39qxtY7fRNJtI38gEujID2GjouWfkmkbEbRPPiypZRFcHeOgw2HU1YxpIz8kqRQ9fwnGIF7MxZR6pKn4UhMQBQz1o7hNyMwyV/caLPlDHMxqyZQcvK+s6j0g4XHBrVBO1USfw2aFHQna+gEMlLpw5EGwWxgTp9xAzoQ6NHPimfkxce4q9KC9UIKKLILyKFtghJxCwOtdx43sBdsGzGI0YdaJMwRoFnYbBAlTC7K3Ac49AbcK9gZLq7vlgZD5xKwiuyuqLRCS8QPgDnOocp/rXcDSaBTdD31uO4knkhHRC3E4r4d5IQzz2lHQ7jlgwh1VkEJJYDhkM9CX8gXArU1CHOHSOvVMPLBnZDVBUANBhzIIpZe3Ai+d+atISii5gU2Nym24yHaMhnLDPDR/4Pb+kZSOtKHEW3CTOs44LO+Tgw8hJD2WdUubuAKbccp0gDoXv8oh6UA3yx5FDi44xmhHCNnqFpCCe+I54fbFbSz4n0jMEgXeCiwMKqdNo1uBnGWPDOBA/mDklo67vZnymVWuYOb6EiE7i+XACYXwt9mSbQCtBCHbhtTzsXwF6Qdns5DBZ/QYKknu+l3+dhiBgFx5eCji1Sx5DPd/xYpfIPNDzp8Ip+doU9710tAb1IbR5GiBTHHtQahgkisssB5RgdBhdlXnyEDoPveQIbV7II6jkjjuvO5ACebWqO8GcAzoU0IsR0vP8PI87pOtf9rF/GUOmTM1UxlMH4jE+DrEf8f2kibHkS5uZUGJ2mbBteRbDWHiLPIsAqEgv8aExmS+CEHsDMAw9in1R/VTWB0sOMJupEcSmR5yclRPRVKq4smThb2MTUSa3wbN4PspyqODim5FNQ44pAxHf5yBwoW5jj07CghdtpMGRZUUu8Se+vYoFLzkF6BwhgXyfLHk7kQ0UPl4uiG0mBDFCbViSPTrb3rN2jOYeJGc+RmLLxwH0q/4cWLUOmbADrRPMCS9dB1qrdaAVyIsgogyOV9pKxdeDteTl0VFIfhxDr7wUSxuAAxeAIh0y6CX1sbfGlxIyfnsAdXXmLXOccuf9wAHGu4//ufr689XTr1fPnv/nH79a/f691U/eh49WC/5SxBe/vPvzN3LXUgiN8cQjYmHj1t6e0dgGB0whxG2ui8Lvxg4T2JMnotynY6QaVDFod3vt434LHC0HJuK8lYh5kPTxMoiz4UhuRkwkTlpPHESy2GOhLxsXqB3Ca7yMTt6LXpMid55+n6C0xauXf3j18sW90spghZJj1YztmmG+reSYDV5yjI0lh/f4srNTNwhzv2bAz8oxl3jQGVyEoJFL7dRz7YZp7Bu7u4aZrB+wxK83MZVJStMYX+olOQm1g9hn4TJ1gfw4IQr/H0OwpGQZEbmBctW/ffj6L58UuJR1FVLUAosL4lB6k54MhOqTs7E2Gp6ftbvauDvifpLRcnxS+RuY1expXOWdZj3qCi61CZXq3ihYnvE4DOLFWsbI0A2cG3PHOrUkKWyzvrSMtoFfndrnP90koHaifObcp8xudcba3E+dTGCoQJFQjq5C8LNv/vX3D1Yvvlg9+93dhz9bPf949dHzgh41W3qRAdeFAMkPU0+GLKYqSwlBFyNh0yvjh7lKokDeA54G1GeRbZo7ov9TQwSyJlcn/kW9OVQ3oVmYDfASgr6Ho+4tU8FqnyC9CMBCFxgKa5B1yikg83Jm3n//5rd3v/7r3adfvf7gT6tnf1z9/NNXL794/eVzGUl3n3x199GXKnOXk7tYC++/ZcuniRudo/EI03iZ1r59+gvND5gG/YUWiyzz7dPPcsr4QkUnkmmG/i1dSHEJa6x5YS6n5ZaSrqEgl4rIWt/mZamRcqjCFCyok03ybo2rgiZUE4Tv9Ma1OCJaAK3Td2EnReZM+H+VUyKyTJ7uGpZpKapcDd/CBEc50x97wQR7WkIQ16USS0HqzQIZr5jvuD9sHfYzFrmIYejC7crgdz7+gXpR0kGmF4MMASr0dU7s8VvtGts6CSVfuRSmq9vh9NDlz4K2YRhmTfxypavAAZfsMJQdjq/eFkfxArpdpi6V99PF60quvz2RrWi+483GvU6RDuMcFQpakcwBQRdZSZFkhupF/CYqu9UTbppsCLTCiwyYQz0fyo7pmsIx6DzZdMMwCDdmnIySsA2gUYYsomcWT3l0PqVsqt3srBIgyXLpB2/L02QYdIhHWOW3tUR6AF3vQ2Xh7KuK9qKh5ypjVrtZpGbJFOQfGLmjVF3MYRhCK8QfIyq/CPapf9Wrtnu7uU8cZ88grmW4u+4U75t4DxtkpzFpNl0LCpJUyq+aXAW/ifBrWrVJoAEsimeX6jO4ZlfUJg0sBPm9EywlAlIl9nSMjmgYscc8RakviTxJkSeyHX5s78ie97EcCwb5oR6d1Vx6YdFJemHyKTrw+nROK95MjSQHFZWAFywWsl2sep5Q8k7ILTSzOQ2QrCc/gnLGr1fVtMmgghyfyie6RvGksjo9ET4FOverh0l3XejLHi4tnnWp938sQDReD1XR8yN6OWNVz9Xa32+QJrFq1tRxatswqEExntRcPN03DWPacHcs/hanlENxoOSm4iS8pNAoxl51Ob30P3P2fwEzwEb50hsAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +54,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +87,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,135 +407,42 @@
       <c r="F1" s="2">
         <v>-149</v>
       </c>
-      <c r="G1" s="2">
-        <v>-153</v>
-      </c>
-      <c r="H1" s="2">
-        <v>-151</v>
-      </c>
-      <c r="I1" s="2">
-        <v>-158</v>
-      </c>
-      <c r="J1" s="2">
-        <v>-154</v>
-      </c>
-      <c r="K1" s="2">
-        <v>-144</v>
-      </c>
-      <c r="L1" s="2">
-        <v>-139</v>
-      </c>
-      <c r="M1" s="2">
-        <v>-131</v>
-      </c>
-      <c r="N1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="O1" s="2">
-        <v>-137</v>
-      </c>
-      <c r="P1" s="2">
-        <v>-145</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>-134</v>
-      </c>
-      <c r="R1" s="2">
-        <v>-133</v>
-      </c>
-      <c r="S1" s="2">
-        <v>-133</v>
-      </c>
-      <c r="T1" s="2">
-        <v>-142</v>
-      </c>
-      <c r="U1" s="2">
-        <v>-144</v>
-      </c>
-      <c r="V1" s="2">
-        <v>-143</v>
-      </c>
-      <c r="W1" s="2">
-        <v>-125</v>
-      </c>
-      <c r="X1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>-16</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>-12</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>-13</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>-8</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>-12</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>-14</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>-5</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>-9</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>-13</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>-10</v>
-      </c>
-      <c r="AV1" s="2">
-        <v>-8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>6</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA03E122-DD3F-42FA-91BD-23365CD0F2F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_75.xlsx
+++ b/Testdata/TC_75.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0hsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD3RcnzkU1vYovCRZ2HMUOmdkXVO4ux0Xa3aa7OonfRlotC7PsE7srFhaW4QWEmGUfQEI7aPkvK5wZnvgLnLr01c4MHUbWTNd3LlV16tyqBr1zO/e0axJGNPAfbZl1Y0sjvhO41L98tBWzac1sbr1jo+6tQ7xTHOI5YcCsgZQfHdxG9NHWjLHFga7f3NzUbxr1ILzULcMw9ceD/siZkTmuUT9i2HfIVirlvl1qy0Ztdz4gDLuYYSn5aKs36tXbhDodwAbYx5ckrLfiiPokiro+o4ySiEuGBDPS7gx+IDdmW/Vm3UT6Gp5xtmLquZKvwClxxQfTkjGdE9syLKNm7NWs7bGxe9BoHpjNenNn791EMGVEfRyxEQmvqSOAEcPzhRA39qxtY7fRNJtI38gEujID2GjouWfkmkbEbRPPiypZRFcHeOgw2HU1YxpIz8kqRQ9fwnGIF7MxZR6pKn4UhMQBQz1o7hNyMwyV/caLPlDHMxqyZQcvK+s6j0g4XHBrVBO1USfw2aFHQna+gEMlLpw5EGwWxgTp9xAzoQ6NHPimfkxce4q9KC9UIKKLILyKFtghJxCwOtdx43sBdsGzGI0YdaJMwRoFnYbBAlTC7K3Ac49AbcK9gZLq7vlgZD5xKwiuyuqLRCS8QPgDnOocp/rXcDSaBTdD31uO4knkhHRC3E4r4d5IQzz2lHQ7jlgwh1VkEJJYDhkM9CX8gXArU1CHOHSOvVMPLBnZDVBUANBhzIIpZe3Ai+d+atISii5gU2Nym24yHaMhnLDPDR/4Pb+kZSOtKHEW3CTOs44LO+Tgw8hJD2WdUubuAKbccp0gDoXv8oh6UA3yx5FDi44xmhHCNnqFpCCe+I54fbFbSz4n0jMEgXeCiwMKqdNo1uBnGWPDOBA/mDklo67vZnymVWuYOb6EiE7i+XACYXwt9mSbQCtBCHbhtTzsXwF6Qdns5DBZ/QYKknu+l3+dhiBgFx5eCji1Sx5DPd/xYpfIPNDzp8Ip+doU9710tAb1IbR5GiBTHHtQahgkisssB5RgdBhdlXnyEDoPveQIbV7II6jkjjuvO5ACebWqO8GcAzoU0IsR0vP8PI87pOtf9rF/GUOmTM1UxlMH4jE+DrEf8f2kibHkS5uZUGJ2mbBteRbDWHiLPIsAqEgv8aExmS+CEHsDMAw9in1R/VTWB0sOMJupEcSmR5yclRPRVKq4smThb2MTUSa3wbN4PspyqODim5FNQ44pAxHf5yBwoW5jj07CghdtpMGRZUUu8Se+vYoFLzkF6BwhgXyfLHk7kQ0UPl4uiG0mBDFCbViSPTrb3rN2jOYeJGc+RmLLxwH0q/4cWLUOmbADrRPMCS9dB1qrdaAVyIsgogyOV9pKxdeDteTl0VFIfhxDr7wUSxuAAxeAIh0y6CX1sbfGlxIyfnsAdXXmLXOccuf9wAHGu4//ufr689XTr1fPnv/nH79a/f691U/eh49WC/5SxBe/vPvzN3LXUgiN8cQjYmHj1t6e0dgGB0whxG2ui8Lvxg4T2JMnotynY6QaVDFod3vt434LHC0HJuK8lYh5kPTxMoiz4UhuRkwkTlpPHESy2GOhLxsXqB3Ca7yMTt6LXpMid55+n6C0xauXf3j18sW90spghZJj1YztmmG+reSYDV5yjI0lh/f4srNTNwhzv2bAz8oxl3jQGVyEoJFL7dRz7YZp7Bu7u4aZrB+wxK83MZVJStMYX+olOQm1g9hn4TJ1gfw4IQr/H0OwpGQZEbmBctW/ffj6L58UuJR1FVLUAosL4lB6k54MhOqTs7E2Gp6ftbvauDvifpLRcnxS+RuY1expXOWdZj3qCi61CZXq3ihYnvE4DOLFWsbI0A2cG3PHOrUkKWyzvrSMtoFfndrnP90koHaifObcp8xudcba3E+dTGCoQJFQjq5C8LNv/vX3D1Yvvlg9+93dhz9bPf949dHzgh41W3qRAdeFAMkPU0+GLKYqSwlBFyNh0yvjh7lKokDeA54G1GeRbZo7ov9TQwSyJlcn/kW9OVQ3oVmYDfASgr6Ho+4tU8FqnyC9CMBCFxgKa5B1yikg83Jm3n//5rd3v/7r3adfvf7gT6tnf1z9/NNXL794/eVzGUl3n3x199GXKnOXk7tYC++/ZcuniRudo/EI03iZ1r59+gvND5gG/YUWiyzz7dPPcsr4QkUnkmmG/i1dSHEJa6x5YS6n5ZaSrqEgl4rIWt/mZamRcqjCFCyok03ybo2rgiZUE4Tv9Ma1OCJaAK3Td2EnReZM+H+VUyKyTJ7uGpZpKapcDd/CBEc50x97wQR7WkIQ16USS0HqzQIZr5jvuD9sHfYzFrmIYejC7crgdz7+gXpR0kGmF4MMASr0dU7s8VvtGts6CSVfuRSmq9vh9NDlz4K2YRhmTfxypavAAZfsMJQdjq/eFkfxArpdpi6V99PF60quvz2RrWi+483GvU6RDuMcFQpakcwBQRdZSZFkhupF/CYqu9UTbppsCLTCiwyYQz0fyo7pmsIx6DzZdMMwCDdmnIySsA2gUYYsomcWT3l0PqVsqt3srBIgyXLpB2/L02QYdIhHWOW3tUR6AF3vQ2Xh7KuK9qKh5ypjVrtZpGbJFOQfGLmjVF3MYRhCK8QfIyq/CPapf9Wrtnu7uU8cZ88grmW4u+4U75t4DxtkpzFpNl0LCpJUyq+aXAW/ifBrWrVJoAEsimeX6jO4ZlfUJg0sBPm9EywlAlIl9nSMjmgYscc8RakviTxJkSeyHX5s78ie97EcCwb5oR6d1Vx6YdFJemHyKTrw+nROK95MjSQHFZWAFywWsl2sep5Q8k7ILTSzOQ2QrCc/gnLGr1fVtMmgghyfyie6RvGksjo9ET4FOverh0l3XejLHi4tnnWp938sQDReD1XR8yN6OWNVz9Xa32+QJrFq1tRxatswqEExntRcPN03DWPacHcs/hanlENxoOSm4iS8pNAoxl51Ob30P3P2fwEzwEb50hsAAA==</t>
+          <t>+xkAAB+LCAAAAAAAAAOlWVtv48YV/iuEn5oHiaR8N2YZWJLtCpUsw6Lr3bwUI3JssSY5Cjm0rbd9KdJsmqcmQXPPPqUoumkeWqDItul/CSrv9ql/oWcuHF4kb6LtwrA537nMzJkz5zKL3ryNQuOaJGlA4wdrdtNaM0jsUT+ILx+sZeyiYW+tvemgg1uPhCc4wRFhwGyAVJzu3abBg7UJY9M907y5uWnerDdpcmm2LMs2Hw76I29CItwI4pTh2CNrWsr/cak1B3X8aEAY9jHDUvLBWm/Ua3ZI4HUBG+AYX5Kk2c7SICZpehCzgAUk5ZIJwYx0uoNfyo05reZW00bmAl5wtrMg9CVfhVPiig+mJW4QEadl2TsNa6exbrt2a8/e2ttoNXe3N9/KBTUj6uOUjUhyHXgCGDEcTYW4tbNu2y17a6OFzKVMoKswgIOGoX9KroOU+B0ShulKFjHVAe57DHa9mjEtZJZklaLXX8JRgqcTN2AhWW0Z7a5rRLFaS6HEQYc0IR7Y77WWdExuhokyqzvtA9WdBAmbdfFsZV1nKUmGU26k1UQd1KUx2w9Jws6mcNbEB1cAgsOSjCDzHmIh1A1SD76DOCO+c4HDtCxUIaJzmlylU+yRY7jHJtdxE4cU++BwLEhZ4KWFggUKOknoFFTC7G0a+oegNudeQtG6ezEYmU/cpvSqrr5KROJcxQnDqUZY61/A0WhCb4ZxOBtl49RLgjHxu+2ceykN8SuppDtZymgEqyggJLESMhiYM/gHt7BOQV3iBREOT0KwZOqsg6IKgPYzRi8C1qFhFsXapDUUncOmXHKrN6nHaAgnHHPD07gX17QspVUlTulN7jyLuLBDCd5PPX0oi5Q6dxcw5ZaLBHEofJeHQQhJonwcJbTqGKMJIWypV0gK4vHwkKcdpz3jcyKzQBB4J7g4oI69u7vdsGz4cS1rT/zAzJqMDmJffECS2WrYLR64C76ciI6zaDiGa3wt9uTYQKtBCHYRtkMcXwF6HrDJ8X6++iUUJPd8L/8iDcGFnYZ4JmBtlzKGerEXZj6RcaAXXwin5GtT3PfS0QLUh6vtIBzP3NmUxwPzHo4uucBZCCmKQSS5LIJEDUb76VWdpwyhsyTMz9jhBUAKFYDnR00PYiTPck2PRhwwIfGej5BZ5ueB3iMH8WUfx5cZhFJtxzquPYwHATfBccq3oyNnzdmWM6H8XGREd+RhDTPhTvKwKFCRWeNDLommNMHhAAwTHGaxyJoqLYCFB5hN1Agub0i83MhmIaqlqivLF/5jbOIaym3wMF++hiVUcPHNyGKjxFSAiO9zQH3I9zgMxknFzZbS4MiKLJg7HN/eihkxPwWoOCHC/ILMeBlSDBTOvdaxc4IYoQ4syRmdbuy0Nq2tHYjefIzElo8o1LlxBKxGl4zZntGlEeG5bc9ot/eMCnlK04DB8UpbqQv42lrK8ugwIW9nUGPPxNIG4MAVoEqHEHsZxDhc4NOEgt8ZQOKdhLMSp9x5n3rAePfBv+bffTZ//N38ydP//uOT+af/nP/ma/hot+GXIj77w92fv5e7lkLIxeOQiIW57Z0da30DHFBDSMUNyP9+5jGBPXok6gE9RqqwFYPOQa9z1G+LQKPBXJzXGhm/JH08o1kxHMnNiInESZu5g0gWx80DlxpXqF3CiwB5O3kNe02q3GX6fYLSFi+ef/3i+bN7pZXBiqQDuabVsDZ+Qk6y13lOspbmJN4byNIv7zw2eedhr5eYazzoFBooqPS0nXq+s25bu9b2tmXrIO9rv17GVCcpTS6+NGtyEurQLGbJTLtAeZwThf+7cFk0Wd6I0kC56t/ee/mXDytcyroKqWqBxdEskd5k5gOh+vjUNUbDs9POgeEejLifFLQSn1T+CmY1u75XZadZvHUVl1qGSnWvFKzPeJTQbLoQMQp0CefS2LFIrUkK2ywuraAt4Ven9tlvlwmonSifOYsDppu5MoYqFAmV6OoKfvz9v//+zvzZl/MnX9299+786Qfz959W9KjZdKcDrgsXpDzUngxRTGWWGoLOR8KmV9avSplEgbxIPKFBzFLHtjdFgaiGCGRtrk78Rb0IspvQLMwGeA1BP8fpwS1Tl9U5RmYVgIVOMSRWWpTSGpBxuTDvfz7/4u7Tv9599O3Ld/40f/LH+e8+evH8y5ffPJU36e7Db+/e/0ZF7npwF2vhBbqs+AzR8nkGv2EGT9PGD49/b8SUGVBfGJmIMj88/rikjC9UVCKFZqjf9EKqS1hgLQtzOaO0FL2GipwWkbm+w9PSuuZQiYlOA6+Y5K0GVwVFqCEIP+u5jSwlBoXS6Q3YSZW5EP6pckpEpsmTbatltxRVroZvYYzTkumPQjrGoZETRD9VY6lIvVqg4BXzHfWH7f1+wSIXMUx8aL8s3hTyD5TXjzxN9NJ8pLuIAgEq1HheFvIWeIFtkaQ1l8KZqVrJi32fPy06liWatWrOq3BAR54kstqJ1fvkKJtC5ctUB3o/XTzFlGrdY1mWlqvfYtzrVukwLlEhuVXJHBB0EaEUSUarXsrbVlm5HnPTFEOgVZ5vwBzqCVJWT9cBHInJA89BktBkafQpKDnbAIpmiChmYXHNI85UFth+cVY5kEc8/SHbPLVD2iUhYau9z5mF9AAq4NeVhbNfVbSXDkNfGXO1LkObpVBQfqTkjvL/vlFKZ9tPEiiW+HvGyo+KeZd6Cs3tiquRWxGCvNuD2dWr32GQpOwhjwTqSyKPNPJIVp0PnY1tWVs+lIDgkB9qk0q7WVlmfnWZfCqmYT+IghU7QCu/31UlYMvpVJZlvdU8haeWY3ILRWNJAwTF8a8hbfA2ZjVt0mEhlmp5/jCTBpcTturCtseY+GRsNbwxaTU2fCjudwmBjsCG39hrQRuxyV91lHKIHAG5WXESMz+w4r9wnP8BYB//pPsZAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,14 +54,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,7 +79,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,42 +399,135 @@
       <c r="F1" s="2">
         <v>-149</v>
       </c>
+      <c r="G1" s="2">
+        <v>-153</v>
+      </c>
+      <c r="H1" s="2">
+        <v>-151</v>
+      </c>
+      <c r="I1" s="2">
+        <v>-158</v>
+      </c>
+      <c r="J1" s="2">
+        <v>-154</v>
+      </c>
+      <c r="K1" s="2">
+        <v>-144</v>
+      </c>
+      <c r="L1" s="2">
+        <v>-139</v>
+      </c>
+      <c r="M1" s="2">
+        <v>-131</v>
+      </c>
+      <c r="N1" s="2">
+        <v>-143</v>
+      </c>
+      <c r="O1" s="2">
+        <v>-137</v>
+      </c>
+      <c r="P1" s="2">
+        <v>-145</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>-134</v>
+      </c>
+      <c r="R1" s="2">
+        <v>-133</v>
+      </c>
+      <c r="S1" s="2">
+        <v>-133</v>
+      </c>
+      <c r="T1" s="2">
+        <v>-142</v>
+      </c>
+      <c r="U1" s="2">
+        <v>-144</v>
+      </c>
+      <c r="V1" s="2">
+        <v>-143</v>
+      </c>
+      <c r="W1" s="2">
+        <v>-125</v>
+      </c>
+      <c r="X1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>-16</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>-13</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>-8</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>-12</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>-13</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>-10</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>6</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA03E122-DD3F-42FA-91BD-23365CD0F2F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>